--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori3/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori3/67/correct_predictions_67.xlsx
@@ -701,7 +701,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori3/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori3/67/correct_predictions_67.xlsx
@@ -701,7 +701,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
